--- a/corona-server-side-asp.net/Excels/Sections/מבט על/סיכום 7 ימים אחרונים_מספר המאומתים.xlsx
+++ b/corona-server-side-asp.net/Excels/Sections/מבט על/סיכום 7 ימים אחרונים_מספר המאומתים.xlsx
@@ -30,13 +30,16 @@
     <t>value</t>
   </si>
   <si>
-    <t>average</t>
+    <t>group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -85,10 +88,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,7 +374,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,24 +384,24 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="3">
-        <v>51</v>
+      <c r="C2" s="3">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
-        <v>-3.7999999999999999E-2</v>
+      <c r="C3" s="4">
+        <v>-0.45100000000000001</v>
       </c>
       <c r="G3" s="2"/>
       <c r="I3" s="2"/>
